--- a/filename.xlsx
+++ b/filename.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Обучение\Java\ДЗ\Network3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92466B9-9E0F-4FFB-B023-E580002BB1D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,22 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Wbah</t>
-  </si>
-  <si>
-    <t>sddcc</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,7 +53,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,40 +330,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>